--- a/TestCase_dtl.xlsx
+++ b/TestCase_dtl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lap\Documents\GitHub\TechProg_MPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0128082-3B81-4AE4-AE0B-FA3EF08457CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993D4A6B-52E4-42B5-A9FB-376494873600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0383FE28-EBCB-4EF5-AAB2-C4F356904DCE}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Запустить приложения chd_server.exe и dtl_client.exe</t>
   </si>
   <si>
-    <t>В приложении dtl_client.exe войти с логином user и паролем 123</t>
-  </si>
-  <si>
     <t>Нажать кнопку "Войти"</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>В главном окне обновлена ​​статистика, система фиксирует количество правильных ответов на каждый вопрос пользователя.</t>
+  </si>
+  <si>
+    <t>В приложении dtl_client.exe войти с логином user и паролем 151</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +812,7 @@
     </row>
     <row r="11" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>27</v>
@@ -829,10 +829,10 @@
     </row>
     <row r="12" spans="1:7" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>21</v>
@@ -840,16 +840,16 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>21</v>
@@ -857,13 +857,13 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>25</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="15" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>21</v>
@@ -891,13 +891,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>25</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="17" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>21</v>
@@ -925,13 +925,13 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>25</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="19" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>21</v>
@@ -959,13 +959,13 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>26</v>
